--- a/data/trans_orig/P39C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>66807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52318</v>
+        <v>51782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84765</v>
+        <v>84006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1037039823466638</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08121337523698002</v>
+        <v>0.08038040504302327</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1315801540283052</v>
+        <v>0.1304015937548408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -763,19 +763,19 @@
         <v>48492</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36996</v>
+        <v>36601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64879</v>
+        <v>65432</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05361981719217022</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04090790746822372</v>
+        <v>0.04047102278416307</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07173985965714241</v>
+        <v>0.07235134894149006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -784,19 +784,19 @@
         <v>115299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94493</v>
+        <v>95714</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>138416</v>
+        <v>136114</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07445485562681373</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06101897153407667</v>
+        <v>0.06180727775194918</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08938256588557482</v>
+        <v>0.08789623219454784</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>131199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112999</v>
+        <v>111751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152669</v>
+        <v>152905</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.203659427629592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1754068912940208</v>
+        <v>0.1734702498564916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2369856428497882</v>
+        <v>0.2373532988561145</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>142</v>
@@ -834,19 +834,19 @@
         <v>158972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137238</v>
+        <v>135181</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184829</v>
+        <v>185043</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1757818748364696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1517502349946498</v>
+        <v>0.1494748520829149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2043733880956599</v>
+        <v>0.2046097117245053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>271</v>
@@ -855,19 +855,19 @@
         <v>290171</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259242</v>
+        <v>260456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>321432</v>
+        <v>324214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1873789511202978</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1674060208378651</v>
+        <v>0.1681904306645034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2075658356346929</v>
+        <v>0.2093618109449394</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>184206</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>162076</v>
+        <v>163519</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208446</v>
+        <v>208517</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2859410817965374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2515894205186118</v>
+        <v>0.2538286473558656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3235685570905493</v>
+        <v>0.3236783109474958</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>253</v>
@@ -905,19 +905,19 @@
         <v>281474</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>254079</v>
+        <v>252198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>310237</v>
+        <v>310385</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3112372434868427</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2809459265007127</v>
+        <v>0.2788656074555495</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3430425976923591</v>
+        <v>0.3432060421268075</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>443</v>
@@ -926,19 +926,19 @@
         <v>465680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>426126</v>
+        <v>430205</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>501711</v>
+        <v>501834</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3007140272279573</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2751722851543353</v>
+        <v>0.2778059291135079</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3239810440810569</v>
+        <v>0.3240606076709852</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>108929</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91668</v>
+        <v>90912</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128104</v>
+        <v>128256</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1690900068078653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1422959025896999</v>
+        <v>0.1411211403444519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1988538666735152</v>
+        <v>0.1990900186121766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>159</v>
@@ -976,19 +976,19 @@
         <v>176899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>153734</v>
+        <v>152262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203486</v>
+        <v>201387</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1956052080742826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1699899304258288</v>
+        <v>0.1683627767172731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2250032897728274</v>
+        <v>0.222682621064636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>274</v>
@@ -997,19 +997,19 @@
         <v>285829</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>256391</v>
+        <v>256187</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>317427</v>
+        <v>318551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.184574870725462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1655651533771088</v>
+        <v>0.1654337157797818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2049792729520128</v>
+        <v>0.2057049282869829</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>153068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133548</v>
+        <v>131989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>174116</v>
+        <v>176280</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2376055014193415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2073046642021232</v>
+        <v>0.2048846624122082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2702776581619687</v>
+        <v>0.2736372200328703</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>207</v>
@@ -1047,19 +1047,19 @@
         <v>238533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>208537</v>
+        <v>211176</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>264916</v>
+        <v>266511</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2637558564102348</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2305876163212895</v>
+        <v>0.2335059054909329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2929288840064205</v>
+        <v>0.29469192996721</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>362</v>
@@ -1068,19 +1068,19 @@
         <v>391601</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>355400</v>
+        <v>360486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>427390</v>
+        <v>426433</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2528772952994692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2295007160124378</v>
+        <v>0.2327851010009188</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2759883536063346</v>
+        <v>0.2753703294504652</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>190403</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164788</v>
+        <v>163079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218239</v>
+        <v>218606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1221715388515976</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1057356119383591</v>
+        <v>0.1046387939394777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1400322311072874</v>
+        <v>0.1402676748553988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>162</v>
@@ -1193,19 +1193,19 @@
         <v>165341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142319</v>
+        <v>140815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>189332</v>
+        <v>190737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1004532495325594</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0864663074641213</v>
+        <v>0.0855524737156972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1150293438841658</v>
+        <v>0.1158826450112964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>343</v>
@@ -1214,19 +1214,19 @@
         <v>355744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>321169</v>
+        <v>320917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>391868</v>
+        <v>392530</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1110160223640378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1002264437886447</v>
+        <v>0.1001476473101649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1222892032515666</v>
+        <v>0.1224956514108394</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>461683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>424767</v>
+        <v>426539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499466</v>
+        <v>501995</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2962373110698769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2725506117003075</v>
+        <v>0.2736875713823038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3204805672407698</v>
+        <v>0.3221031324814506</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>464</v>
@@ -1264,19 +1264,19 @@
         <v>480644</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444130</v>
+        <v>442594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>516255</v>
+        <v>521504</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2920168502191309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2698327449026208</v>
+        <v>0.2688993771242869</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3136521797720069</v>
+        <v>0.3168414799524078</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>906</v>
@@ -1285,19 +1285,19 @@
         <v>942327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>894619</v>
+        <v>893214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>997196</v>
+        <v>992971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.294069487448321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2791814870101043</v>
+        <v>0.2787428906129519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3111921865284671</v>
+        <v>0.3098738362979547</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>469870</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>433869</v>
+        <v>433129</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>505800</v>
+        <v>508091</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3014903876809404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2783905661550512</v>
+        <v>0.277916059792845</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.324544692385621</v>
+        <v>0.326014731704892</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>468</v>
@@ -1335,19 +1335,19 @@
         <v>493343</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>457028</v>
+        <v>453341</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>531332</v>
+        <v>532319</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.299731960904922</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2776685280973578</v>
+        <v>0.2754286717885883</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3228126209311568</v>
+        <v>0.323412237508903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>911</v>
@@ -1356,19 +1356,19 @@
         <v>963213</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>907432</v>
+        <v>907172</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1012605</v>
+        <v>1017032</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.300587178473075</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2831798947066411</v>
+        <v>0.2830985690600673</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.316000966588019</v>
+        <v>0.3173824373922865</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>202220</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173898</v>
+        <v>174060</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>229634</v>
+        <v>234371</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1297539929471144</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1115812972544193</v>
+        <v>0.1116852049590013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1473439984388525</v>
+        <v>0.150383306527971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -1406,19 +1406,19 @@
         <v>192064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167089</v>
+        <v>169905</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>217992</v>
+        <v>220878</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1166890896768211</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1015152114620787</v>
+        <v>0.1032262223181195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1324418322509335</v>
+        <v>0.1341949669077598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>366</v>
@@ -1427,19 +1427,19 @@
         <v>394284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>354703</v>
+        <v>359659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>434837</v>
+        <v>436974</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1230432552044152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1106911926853081</v>
+        <v>0.1122376591404817</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.135698471471356</v>
+        <v>0.1363652306577043</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>234314</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>206115</v>
+        <v>206081</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>262233</v>
+        <v>264788</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1503467694504706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1322532492566249</v>
+        <v>0.132231242393869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.168260650378813</v>
+        <v>0.1699004064973534</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>294</v>
@@ -1477,19 +1477,19 @@
         <v>314555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>283143</v>
+        <v>281164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346024</v>
+        <v>349183</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1911088496665665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1720243913985929</v>
+        <v>0.1708218408545573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2102279675058858</v>
+        <v>0.2121469138165264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>514</v>
@@ -1498,19 +1498,19 @@
         <v>548869</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>508888</v>
+        <v>504480</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>597319</v>
+        <v>590834</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.171284056510151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1588071925922185</v>
+        <v>0.1574316039392975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1864036174915697</v>
+        <v>0.1843798279382362</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>54052</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40227</v>
+        <v>40606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69996</v>
+        <v>69342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1276195081325392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09497750901196453</v>
+        <v>0.09587360417480326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1652638931580378</v>
+        <v>0.1637196109093682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1623,19 +1623,19 @@
         <v>37267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26692</v>
+        <v>27225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49679</v>
+        <v>50379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08350131987463638</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0598065110792288</v>
+        <v>0.06100257102660595</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1113142677235046</v>
+        <v>0.1128826459868875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1644,19 +1644,19 @@
         <v>91319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74710</v>
+        <v>74691</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111076</v>
+        <v>111766</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1049832496059336</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08588911280487681</v>
+        <v>0.0858672682639985</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1276968570830073</v>
+        <v>0.1284908986204258</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>130959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111506</v>
+        <v>111076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150697</v>
+        <v>150263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3092020481350589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2632726542431181</v>
+        <v>0.2622573187123037</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3558030139205764</v>
+        <v>0.354778732498596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -1694,19 +1694,19 @@
         <v>137193</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119413</v>
+        <v>118522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>158896</v>
+        <v>160462</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3074018507038736</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2675625095567823</v>
+        <v>0.2655674540185351</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3560310685656192</v>
+        <v>0.3595399543293001</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>253</v>
@@ -1715,19 +1715,19 @@
         <v>268153</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>242992</v>
+        <v>239728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296392</v>
+        <v>296977</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3082783988180691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2793532514967205</v>
+        <v>0.2755999916527841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3407438469321922</v>
+        <v>0.3414157692359461</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>109474</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92389</v>
+        <v>92123</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>129449</v>
+        <v>129486</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2584733681194312</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2181351253889626</v>
+        <v>0.2175072891749778</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3056349812500074</v>
+        <v>0.3057226787715402</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>130</v>
@@ -1765,19 +1765,19 @@
         <v>136786</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>117884</v>
+        <v>116267</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>155605</v>
+        <v>155841</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3064900975301187</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2641367381228405</v>
+        <v>0.2605141728548256</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3486571770221656</v>
+        <v>0.3491853672412253</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>233</v>
@@ -1786,19 +1786,19 @@
         <v>246260</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>218513</v>
+        <v>215941</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>271467</v>
+        <v>273229</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2831098988443231</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2512110589177437</v>
+        <v>0.2482537871585574</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.312089347218986</v>
+        <v>0.3141145776188568</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>51014</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39104</v>
+        <v>38472</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67658</v>
+        <v>68611</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1204475815503948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09232769048472621</v>
+        <v>0.09083493598213374</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1597429458737681</v>
+        <v>0.1619931176950428</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -1836,19 +1836,19 @@
         <v>59061</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45539</v>
+        <v>46965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74885</v>
+        <v>76622</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1323354509359543</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1020367759880282</v>
+        <v>0.1052326663709101</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1677918184359439</v>
+        <v>0.1716822355189145</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -1857,19 +1857,19 @@
         <v>110076</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88639</v>
+        <v>92550</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>131675</v>
+        <v>133148</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1265470361147794</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1019022725644531</v>
+        <v>0.1063988565264382</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1513789668901498</v>
+        <v>0.1530725473498852</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>78040</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62773</v>
+        <v>64195</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96278</v>
+        <v>96010</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.184257494062576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1482110179923244</v>
+        <v>0.1515687802547883</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.22731768233076</v>
+        <v>0.2266837802471257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -1907,19 +1907,19 @@
         <v>75992</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60272</v>
+        <v>60879</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92558</v>
+        <v>93980</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.170271280955417</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.135048028834211</v>
+        <v>0.1364093930881041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2073901257991609</v>
+        <v>0.2105769868081367</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>143</v>
@@ -1928,19 +1928,19 @@
         <v>154032</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132278</v>
+        <v>130987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>179658</v>
+        <v>178419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1770814166168949</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1520716548755332</v>
+        <v>0.1505871003210584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.20654180441907</v>
+        <v>0.2051168965486641</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>311262</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>281251</v>
+        <v>278265</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>345285</v>
+        <v>346052</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1185201005688257</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1070924917141345</v>
+        <v>0.1059558191702237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1314749506331767</v>
+        <v>0.1317669572869686</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>243</v>
@@ -2053,19 +2053,19 @@
         <v>251099</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>222916</v>
+        <v>221824</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>284821</v>
+        <v>283473</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08379433168845149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0743891888735044</v>
+        <v>0.07402490831483727</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09504744464149213</v>
+        <v>0.09459765734691182</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>538</v>
@@ -2074,19 +2074,19 @@
         <v>562362</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>517525</v>
+        <v>514478</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>607583</v>
+        <v>600973</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1000135294189119</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09203959901693448</v>
+        <v>0.09149760675230911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1080560061041172</v>
+        <v>0.1068803861469198</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>723842</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>674616</v>
+        <v>669908</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>770307</v>
+        <v>768621</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2756190433878327</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2568752698513973</v>
+        <v>0.2550826290100359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2933117776378578</v>
+        <v>0.2926698368579714</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>740</v>
@@ -2124,19 +2124,19 @@
         <v>776809</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>731212</v>
+        <v>728702</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>829909</v>
+        <v>824273</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2592288237964846</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2440126993562548</v>
+        <v>0.2431749226714483</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2769489101020914</v>
+        <v>0.2750680921649707</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1430</v>
@@ -2145,19 +2145,19 @@
         <v>1500651</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1430031</v>
+        <v>1439703</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1570192</v>
+        <v>1572336</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2668841247723539</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2543247593438508</v>
+        <v>0.2560448886550935</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2792516492325175</v>
+        <v>0.2796329957515879</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>763550</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>720145</v>
+        <v>718216</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>811607</v>
+        <v>809790</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2907387273140429</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2742115519043646</v>
+        <v>0.2734768723002873</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3090374674839454</v>
+        <v>0.3083456633881953</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>851</v>
@@ -2195,19 +2195,19 @@
         <v>911602</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>866266</v>
+        <v>866656</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>966075</v>
+        <v>969903</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.304210740071831</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2890815286725467</v>
+        <v>0.2892115630101103</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3223886106263518</v>
+        <v>0.3236661716615956</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1587</v>
@@ -2216,19 +2216,19 @@
         <v>1675152</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1604332</v>
+        <v>1609680</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1745076</v>
+        <v>1755629</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2979184319159318</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2853234625630852</v>
+        <v>0.2862744547624231</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3103540402441908</v>
+        <v>0.3122308007960753</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>362164</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>329177</v>
+        <v>327609</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>401706</v>
+        <v>399890</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1379021511750359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1253416666798774</v>
+        <v>0.1247444937411584</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1529585019873434</v>
+        <v>0.1522672704344591</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>393</v>
@@ -2266,19 +2266,19 @@
         <v>428025</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>389613</v>
+        <v>389086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>467267</v>
+        <v>467280</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1428360257151959</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1300175380411022</v>
+        <v>0.1298418740384831</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1559317576290511</v>
+        <v>0.1559359945464768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>739</v>
@@ -2287,19 +2287,19 @@
         <v>790189</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>740699</v>
+        <v>739416</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>845478</v>
+        <v>844669</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1405315846812245</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1317300356311685</v>
+        <v>0.1315018573823758</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1503644587340239</v>
+        <v>0.1502207059806564</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>465422</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>425899</v>
+        <v>429948</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>505768</v>
+        <v>505928</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1772199775542629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1621707991820724</v>
+        <v>0.1637121972639252</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1925826215172713</v>
+        <v>0.1926433693697517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>573</v>
@@ -2337,19 +2337,19 @@
         <v>629080</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>585660</v>
+        <v>584377</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>680863</v>
+        <v>674577</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.209930078728037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1954403722604318</v>
+        <v>0.1950122525565608</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2272107965527938</v>
+        <v>0.2251131564292793</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1019</v>
@@ -2358,19 +2358,19 @@
         <v>1094502</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1032879</v>
+        <v>1031157</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1153556</v>
+        <v>1158415</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1946523292115779</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1836929394034529</v>
+        <v>0.1833867992137713</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2051548739538716</v>
+        <v>0.2060190078319001</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>37393</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26773</v>
+        <v>26553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51143</v>
+        <v>50437</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07547191467397969</v>
+        <v>0.07547191467397971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05403715219653629</v>
+        <v>0.05359367183286749</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1032237833564657</v>
+        <v>0.1017988730881398</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -2722,19 +2722,19 @@
         <v>32668</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24045</v>
+        <v>25216</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42724</v>
+        <v>44248</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04320736108222884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03180220334570866</v>
+        <v>0.03335108528718659</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05650806301505962</v>
+        <v>0.05852386091538924</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -2743,19 +2743,19 @@
         <v>70061</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56286</v>
+        <v>55464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85060</v>
+        <v>85471</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05598033371929464</v>
+        <v>0.05598033371929465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04497393198532587</v>
+        <v>0.04431684560263614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06796467936703654</v>
+        <v>0.06829307985698381</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>101492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83895</v>
+        <v>85607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119641</v>
+        <v>119677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2048438967094606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1693276512097875</v>
+        <v>0.1727827056589699</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2414760853077715</v>
+        <v>0.2415472683057776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -2793,19 +2793,19 @@
         <v>139175</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123777</v>
+        <v>122780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156920</v>
+        <v>156400</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1840765368752939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1637110475955602</v>
+        <v>0.1623921225680965</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2075475597121289</v>
+        <v>0.2068596616782755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -2814,19 +2814,19 @@
         <v>240666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217481</v>
+        <v>217387</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>267586</v>
+        <v>269167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1922979715265308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1737725160840866</v>
+        <v>0.1736971870866316</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2138070963647509</v>
+        <v>0.2150705882464402</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>122829</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106496</v>
+        <v>105923</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141971</v>
+        <v>140787</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2479096626107396</v>
+        <v>0.2479096626107397</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2149437139573951</v>
+        <v>0.2137870528740062</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2865456822646883</v>
+        <v>0.2841557746852689</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>386</v>
@@ -2864,19 +2864,19 @@
         <v>223282</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>204843</v>
+        <v>203344</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>242738</v>
+        <v>240643</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2953191876222644</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2709313675903647</v>
+        <v>0.2689490133103731</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3210523355391789</v>
+        <v>0.3182813178587702</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>539</v>
@@ -2885,19 +2885,19 @@
         <v>346111</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>318814</v>
+        <v>319539</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>371610</v>
+        <v>373011</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2765505856025136</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2547395173160611</v>
+        <v>0.2553188401129723</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2969252581325966</v>
+        <v>0.2980443517742277</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>107859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91666</v>
+        <v>90130</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125490</v>
+        <v>124381</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.217695668317309</v>
+        <v>0.2176956683173091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1850116558165366</v>
+        <v>0.1819128113937327</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2532800418243272</v>
+        <v>0.2510427841712915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>287</v>
@@ -2935,19 +2935,19 @@
         <v>154982</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138696</v>
+        <v>138462</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173342</v>
+        <v>173300</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2049835256184971</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1834434684910305</v>
+        <v>0.1831342625470253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2292676509080925</v>
+        <v>0.2292112738821714</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>429</v>
@@ -2956,19 +2956,19 @@
         <v>262841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239661</v>
+        <v>241347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286673</v>
+        <v>287168</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2100160406473713</v>
+        <v>0.2100160406473712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1914949796682346</v>
+        <v>0.192841995516679</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2290580757328246</v>
+        <v>0.2294541812509788</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>125885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>107537</v>
+        <v>109963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142936</v>
+        <v>145969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.254078857688511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2170461414104167</v>
+        <v>0.2219415182502726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2884919972125984</v>
+        <v>0.2946138738716946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>375</v>
@@ -3006,19 +3006,19 @@
         <v>205964</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>188057</v>
+        <v>187358</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>226062</v>
+        <v>227134</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2724133888017157</v>
+        <v>0.2724133888017156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2487300468886205</v>
+        <v>0.2478052596149806</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2989964454202407</v>
+        <v>0.3004138520819177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>546</v>
@@ -3027,19 +3027,19 @@
         <v>331849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>305180</v>
+        <v>305002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>358017</v>
+        <v>357821</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2651550685042896</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2438457600079508</v>
+        <v>0.2437035232467677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2860635735660091</v>
+        <v>0.2859074319481962</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>171870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143994</v>
+        <v>144508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199500</v>
+        <v>201243</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1025285912186144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08589938295516539</v>
+        <v>0.08620622144429874</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.119011236883059</v>
+        <v>0.1200509818111496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -3152,19 +3152,19 @@
         <v>157532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136505</v>
+        <v>135259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180322</v>
+        <v>181120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08806721699106067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07631243468091357</v>
+        <v>0.07561576965309771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1008080242459162</v>
+        <v>0.1012538932224564</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>345</v>
@@ -3173,19 +3173,19 @@
         <v>329402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>294115</v>
+        <v>292146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364881</v>
+        <v>364178</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09506323320367881</v>
+        <v>0.09506323320367879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08487977624618204</v>
+        <v>0.08431159727375794</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1053022164297688</v>
+        <v>0.1050995313527234</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>466406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>426211</v>
+        <v>424331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509953</v>
+        <v>503430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2782333549375944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2542555149611561</v>
+        <v>0.2531338286688995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3042115214413457</v>
+        <v>0.3003200818320053</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>648</v>
@@ -3223,19 +3223,19 @@
         <v>479834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>448764</v>
+        <v>444935</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>517974</v>
+        <v>513763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2682482387211735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2508785304014591</v>
+        <v>0.2487377014847222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2895698756449013</v>
+        <v>0.287215814520922</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1066</v>
@@ -3244,19 +3244,19 @@
         <v>946240</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>898362</v>
+        <v>899013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1001606</v>
+        <v>1001566</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.273078764080365</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2592615625844022</v>
+        <v>0.2594492838224134</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2890570048264654</v>
+        <v>0.2890454322505311</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>493964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>456505</v>
+        <v>453041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>534042</v>
+        <v>528756</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2946733806557695</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.272327360141198</v>
+        <v>0.2702607374636309</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3185817303911034</v>
+        <v>0.3154283444006607</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>748</v>
@@ -3294,19 +3294,19 @@
         <v>515167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>482882</v>
+        <v>480563</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>550027</v>
+        <v>549175</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2880008340533208</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2699521139027665</v>
+        <v>0.2686557644594198</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3074891436804536</v>
+        <v>0.307012837571187</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1250</v>
@@ -3315,19 +3315,19 @@
         <v>1009131</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>962723</v>
+        <v>959070</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1065924</v>
+        <v>1061309</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2912288290886224</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2778356875523421</v>
+        <v>0.2767813902872772</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3076190067054103</v>
+        <v>0.3062870667998706</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>260155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>231359</v>
+        <v>231018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>289335</v>
+        <v>296998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1551951200626813</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1380170461484232</v>
+        <v>0.1378132404608257</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1726021716216023</v>
+        <v>0.177173703093935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>398</v>
@@ -3365,19 +3365,19 @@
         <v>257851</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>232271</v>
+        <v>232134</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283713</v>
+        <v>285410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1441497008811919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1298497422132203</v>
+        <v>0.129772907362245</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1586075957979291</v>
+        <v>0.1595563541196781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>675</v>
@@ -3386,19 +3386,19 @@
         <v>518006</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>481636</v>
+        <v>477019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>564470</v>
+        <v>560664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.149493171733473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1389969778648881</v>
+        <v>0.1376646699401327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1629023370225621</v>
+        <v>0.1618040336495283</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>283916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253155</v>
+        <v>255900</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317170</v>
+        <v>313315</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1693695531253404</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1510192905903151</v>
+        <v>0.1526564991956183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1892073999387175</v>
+        <v>0.1869075801645421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>552</v>
@@ -3436,19 +3436,19 @@
         <v>378386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348913</v>
+        <v>348662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>411260</v>
+        <v>412310</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2115340093532531</v>
+        <v>0.211534009353253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1950573609146807</v>
+        <v>0.1949169980752746</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2299121488703992</v>
+        <v>0.23049909702359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>851</v>
@@ -3457,19 +3457,19 @@
         <v>662302</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>618134</v>
+        <v>618071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>707348</v>
+        <v>709464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1911360018938608</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1783896195223794</v>
+        <v>0.1783714813087641</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2041360263805833</v>
+        <v>0.2047467583546699</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>38779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27179</v>
+        <v>27058</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53783</v>
+        <v>55168</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06568466134054803</v>
+        <v>0.06568466134054801</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04603678598852783</v>
+        <v>0.04583134414481566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09109997620300989</v>
+        <v>0.09344487521463608</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -3582,19 +3582,19 @@
         <v>41239</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31021</v>
+        <v>31105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55381</v>
+        <v>54958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06341187480401141</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0476991544566524</v>
+        <v>0.04782941812169086</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08515695388350561</v>
+        <v>0.0845061258164878</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -3603,19 +3603,19 @@
         <v>80018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62780</v>
+        <v>64356</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98126</v>
+        <v>98480</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06449334727791869</v>
+        <v>0.06449334727791868</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05059963012849377</v>
+        <v>0.05187030811250146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07908817687846073</v>
+        <v>0.07937366439083995</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>160552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>138684</v>
+        <v>136446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182774</v>
+        <v>184375</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2719482332713636</v>
+        <v>0.2719482332713635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2349078564146724</v>
+        <v>0.2311167913363899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3095881763412975</v>
+        <v>0.312299802102583</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -3653,19 +3653,19 @@
         <v>156670</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>136785</v>
+        <v>137635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176255</v>
+        <v>175917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2409048908658682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2103286759125225</v>
+        <v>0.211635086477852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2710195887498026</v>
+        <v>0.2704995671753528</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>355</v>
@@ -3674,19 +3674,19 @@
         <v>317222</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>288195</v>
+        <v>285985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347524</v>
+        <v>343770</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2556764146187243</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2322808457633947</v>
+        <v>0.2304995625263169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2800990936349903</v>
+        <v>0.2770736651490728</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>188133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166270</v>
+        <v>164822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212189</v>
+        <v>213265</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.318666436719102</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2816334294857835</v>
+        <v>0.2791817245748061</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3594131879887457</v>
+        <v>0.3612348502143218</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>291</v>
@@ -3724,19 +3724,19 @@
         <v>195623</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>175816</v>
+        <v>175709</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>218331</v>
+        <v>217908</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3008010190903732</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2703441981618038</v>
+        <v>0.2701795377848659</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.335718622457028</v>
+        <v>0.3350677525133831</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>478</v>
@@ -3745,19 +3745,19 @@
         <v>383756</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>355550</v>
+        <v>353499</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>416269</v>
+        <v>414686</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3093020186738055</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2865685382905329</v>
+        <v>0.2849148704414664</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3355064709095256</v>
+        <v>0.3342309929892733</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>94035</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79076</v>
+        <v>75714</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>115184</v>
+        <v>112556</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1592795814652273</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1339415653326243</v>
+        <v>0.1282464388421275</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1951025262301737</v>
+        <v>0.1906505632988645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>159</v>
@@ -3795,19 +3795,19 @@
         <v>109582</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93134</v>
+        <v>95367</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127289</v>
+        <v>127638</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1684990344727071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1432077763882819</v>
+        <v>0.1466421525334881</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1957264461080012</v>
+        <v>0.1962634793495304</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>259</v>
@@ -3816,19 +3816,19 @@
         <v>203617</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>180969</v>
+        <v>178264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>229494</v>
+        <v>229492</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1641120916200515</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1458587626698705</v>
+        <v>0.1436780515873648</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1849685624757859</v>
+        <v>0.184967096119397</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>108878</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91663</v>
+        <v>90301</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>129539</v>
+        <v>127712</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1844210872037592</v>
+        <v>0.1844210872037591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1552611178144229</v>
+        <v>0.1529545568279178</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.219417274265662</v>
+        <v>0.2163230497990261</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>203</v>
@@ -3866,19 +3866,19 @@
         <v>147226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>129722</v>
+        <v>130194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165498</v>
+        <v>167287</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2263831807670402</v>
+        <v>0.2263831807670401</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1994681207113907</v>
+        <v>0.2001940158300151</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2544791121026431</v>
+        <v>0.2572306188407343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>322</v>
@@ -3887,19 +3887,19 @@
         <v>256104</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>228389</v>
+        <v>229885</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283295</v>
+        <v>284458</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2064161278095001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1840784718444986</v>
+        <v>0.1852840851934582</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2283313839002885</v>
+        <v>0.229269403379418</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>248042</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>217252</v>
+        <v>216517</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>285105</v>
+        <v>282936</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08980034947983812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07865348291117648</v>
+        <v>0.07838728806812001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1032187495437686</v>
+        <v>0.102433382365937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>304</v>
@@ -4012,19 +4012,19 @@
         <v>231439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207755</v>
+        <v>206483</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>257044</v>
+        <v>261791</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07243381058771327</v>
+        <v>0.07243381058771325</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06502124578363198</v>
+        <v>0.06462319803688155</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08044747018867549</v>
+        <v>0.08193313229918781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>518</v>
@@ -4033,19 +4033,19 @@
         <v>479481</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>437299</v>
+        <v>439153</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>523465</v>
+        <v>525313</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08048590013876163</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07340531063751372</v>
+        <v>0.07371650533964927</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08786909749993717</v>
+        <v>0.08817935012125985</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>728449</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>679108</v>
+        <v>677289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>777745</v>
+        <v>778857</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2637258001727439</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2458624842648916</v>
+        <v>0.2452037308872974</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2815726938602097</v>
+        <v>0.2819754488754559</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1090</v>
@@ -4083,19 +4083,19 @@
         <v>775679</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>733419</v>
+        <v>728168</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>820832</v>
+        <v>820454</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2427654262190263</v>
+        <v>0.2427654262190262</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2295391430278961</v>
+        <v>0.2278957638426053</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.256897172025178</v>
+        <v>0.256778804048391</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1767</v>
@@ -4104,19 +4104,19 @@
         <v>1504128</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1437757</v>
+        <v>1429566</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1569228</v>
+        <v>1564937</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2524838168060724</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2413426389522362</v>
+        <v>0.2399678070747218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2634114593337387</v>
+        <v>0.2626912162701763</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>804926</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>754084</v>
+        <v>752997</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>855670</v>
+        <v>852372</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2914134141092651</v>
+        <v>0.2914134141092652</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2730067101812683</v>
+        <v>0.2726129813781573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3097844483836735</v>
+        <v>0.3085903684936818</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1425</v>
@@ -4154,19 +4154,19 @@
         <v>934072</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>889208</v>
+        <v>890472</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>981113</v>
+        <v>978925</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2923378855759231</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2782968704133371</v>
+        <v>0.2786924811824149</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3070602762621467</v>
+        <v>0.3063755291357742</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2267</v>
@@ -4175,19 +4175,19 @@
         <v>1738998</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1669673</v>
+        <v>1673988</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1801862</v>
+        <v>1803450</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2919092493874944</v>
+        <v>0.2919092493874945</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2802723106960002</v>
+        <v>0.2809965660979279</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3024615130870946</v>
+        <v>0.3027281431189555</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>462049</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>425114</v>
+        <v>422233</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>503698</v>
+        <v>505882</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1672791183438977</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.153907067937666</v>
+        <v>0.1528641831620434</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1823574843099913</v>
+        <v>0.1831483157626832</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>844</v>
@@ -4225,19 +4225,19 @@
         <v>522414</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>489110</v>
+        <v>487242</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>558968</v>
+        <v>557428</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1635007160321149</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1530776325081902</v>
+        <v>0.1524927881513245</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1749412074635279</v>
+        <v>0.1744589628092939</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1363</v>
@@ -4246,19 +4246,19 @@
         <v>984463</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>930438</v>
+        <v>928539</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1040050</v>
+        <v>1036171</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1652525926704795</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1561838478584771</v>
+        <v>0.1558650933211569</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1745834650552449</v>
+        <v>0.173932294075862</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>518679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>475660</v>
+        <v>479023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>561412</v>
+        <v>559756</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.187781317894255</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1722065947306783</v>
+        <v>0.1734243828904266</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2032522069446087</v>
+        <v>0.2026524440440856</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1130</v>
@@ -4296,19 +4296,19 @@
         <v>731575</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>693587</v>
+        <v>693971</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>771734</v>
+        <v>775843</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2289621615852225</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2170729526315327</v>
+        <v>0.217193306133986</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2415308560992861</v>
+        <v>0.2428167299800324</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1719</v>
@@ -4317,19 +4317,19 @@
         <v>1250255</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1197182</v>
+        <v>1192174</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1308521</v>
+        <v>1310369</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2098684409971921</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2009597107880112</v>
+        <v>0.2001189547174128</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2196490826147609</v>
+        <v>0.2199592671378818</v>
       </c>
     </row>
     <row r="27">
